--- a/data/asking-rent.xlsx
+++ b/data/asking-rent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmc\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFD87944-0254-43C4-81D6-9A62672BC649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAFEB0BA-821F-4BBE-9165-239727AEC696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{75E667AC-3173-4432-93F1-B245AAFC2FE4}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>% Change vs Last Year</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E57201-413C-4FF1-993A-4F68634713F6}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,411 +451,610 @@
     <col min="2" max="2" width="8.89453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1475</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B6-1)*100</f>
+        <v>0.68259385665530026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
         <v>45565</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="3">
         <v>1523</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2">
+      <c r="C3">
+        <f t="shared" ref="C3:C48" si="0">(B3/B7-1)*100</f>
+        <v>4.1723666210670363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
         <v>45473</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="3">
         <v>1481</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2.4913494809688519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
         <v>45382</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="3">
         <v>1469</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.47879616963064642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
         <v>45291</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="3">
         <v>1465</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>10.816944024205743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
         <v>45199</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="3">
         <v>1462</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>9.5952023988006054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
         <v>45107</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>1445</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>9.9695585996955938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
         <v>45016</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B9" s="3">
         <v>1462</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>16.494023904382459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
         <v>44926</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3">
         <v>1322</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>9.5277547638773719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
         <v>44834</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="3">
         <v>1334</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>10.889443059019111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
         <v>44742</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="3">
         <v>1314</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>7.0032573289902311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
         <v>44651</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B13" s="3">
         <v>1255</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2.3654159869494373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
         <v>44561</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3">
         <v>1207</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.4285714285714235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
         <v>44469</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" s="3">
         <v>1203</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>3.706896551724137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
         <v>44377</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" s="3">
         <v>1228</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>18.877057115198447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
         <v>44286</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="3">
         <v>1226</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>17.771373679154667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
         <v>44196</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3">
         <v>1190</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>18.407960199004968</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
         <v>44104</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B19" s="3">
         <v>1160</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>15.76846307385229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
         <v>44012</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3">
         <v>1033</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2.4801587301587213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
         <v>43921</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3">
         <v>1041</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>3.4791252485089519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2">
         <v>43830</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3">
         <v>1005</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>6.1246040126715862</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
         <v>43738</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B23" s="3">
         <v>1002</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-9.9700897308074854E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
         <v>43646</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B24" s="3">
         <v>1008</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>5.9936908517350229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2">
         <v>43555</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B25" s="3">
         <v>1006</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>5.4507337526205513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
         <v>43465</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B26" s="3">
         <v>947</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>4.0659340659340737</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2">
         <v>43373</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B27" s="3">
         <v>1003</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>9.9780701754385923</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
         <v>43281</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B28" s="3">
         <v>951</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>4.5054945054945117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2">
         <v>43190</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B29" s="3">
         <v>954</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>10.416666666666675</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2">
         <v>43100</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B30" s="3">
         <v>910</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>5.32407407407407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2">
         <v>43008</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="3">
         <v>912</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>8.3135391923990554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2">
         <v>42916</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B32" s="3">
         <v>910</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>7.4380165289256173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2">
         <v>42825</v>
-      </c>
-      <c r="B32" s="3">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2">
-        <v>42735</v>
       </c>
       <c r="B33" s="3">
         <v>864</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>-0.68965517241379448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
+        <v>42735</v>
+      </c>
+      <c r="B34" s="3">
+        <v>864</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>1.6470588235294015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2">
         <v>42643</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B35" s="3">
         <v>842</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>4.9875311720698257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2">
         <v>42551</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B36" s="3">
         <v>847</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>5.4794520547945202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2">
         <v>42460</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B37" s="3">
         <v>870</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>8.8861076345431833</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2">
         <v>42369</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B38" s="3">
         <v>850</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>10.966057441253273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2">
         <v>42277</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B39" s="3">
         <v>802</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>6.0846560846560926</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2">
         <v>42185</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B40" s="3">
         <v>803</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>6.2169312169312096</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2">
         <v>42094</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B41" s="3">
         <v>799</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>4.3080939947780728</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2">
         <v>42004</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B42" s="3">
         <v>766</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>2.6809651474530849</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2">
         <v>41912</v>
-      </c>
-      <c r="B42" s="3">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2">
-        <v>41820</v>
       </c>
       <c r="B43" s="3">
         <v>756</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>2.7173913043478271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2">
+        <v>41820</v>
+      </c>
+      <c r="B44" s="3">
+        <v>756</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>2.857142857142847</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2">
         <v>41729</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B45" s="3">
         <v>766</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>6.6852367688022385</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2">
         <v>41639</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B46" s="3">
         <v>746</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>3.0386740331491691</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2">
         <v>41547</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B47" s="3">
         <v>736</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>4.2492917847025469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2">
         <v>41455</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B48" s="3">
         <v>735</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2">
-        <v>41364</v>
-      </c>
-      <c r="B48" s="3">
-        <v>718</v>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>2.6536312849162025</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2">
-        <v>41274</v>
+        <v>41364</v>
       </c>
       <c r="B49" s="3">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2">
-        <v>41182</v>
+        <v>41274</v>
       </c>
       <c r="B50" s="3">
-        <v>706</v>
+        <v>724</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2">
+        <v>41182</v>
+      </c>
+      <c r="B51" s="3">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="2">
         <v>41090</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B52" s="3">
         <v>716</v>
       </c>
     </row>

--- a/data/asking-rent.xlsx
+++ b/data/asking-rent.xlsx
@@ -1,45 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmc\OneDrive\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAFEB0BA-821F-4BBE-9165-239727AEC696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{75E667AC-3173-4432-93F1-B245AAFC2FE4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>% Change vs Last Year</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF1A1A1A"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color rgb="FF1A1A1A"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -64,87 +99,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -464,608 +440,624 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E57201-413C-4FF1-993A-4F68634713F6}">
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col width="8.9453125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="8.89453125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col min="1" max="1" width="8.9453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.89453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>% Change vs Last Year</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-Q1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1468</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.88</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2">
         <v>45657</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B2" s="3">
         <v>1475</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="C2">
+        <f>(B2/B6-1)*100</f>
+        <v>0.68259385665530026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
         <v>45565</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B3" s="3">
         <v>1523</v>
       </c>
-      <c r="C4" t="n">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="C3">
+        <f t="shared" ref="C3:C48" si="0">(B3/B7-1)*100</f>
+        <v>4.1723666210670363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
         <v>45473</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B4" s="3">
         <v>1481</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2.4913494809688519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
         <v>45382</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B5" s="3">
         <v>1469</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.47879616963064642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
         <v>45291</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B6" s="3">
         <v>1465</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>10.816944024205743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
         <v>45199</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B7" s="3">
         <v>1462</v>
       </c>
-      <c r="C8" t="n">
-        <v>10.59</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>9.5952023988006054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
         <v>45107</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B8" s="3">
         <v>1445</v>
       </c>
-      <c r="C9" t="n">
-        <v>8.32</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>9.9695585996955938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
         <v>45016</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B9" s="3">
         <v>1462</v>
       </c>
-      <c r="C10" t="n">
-        <v>11.26</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>16.494023904382459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
         <v>44926</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B10" s="3">
         <v>1322</v>
       </c>
-      <c r="C11" t="n">
-        <v>5.34</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>9.5277547638773719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
         <v>44834</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B11" s="3">
         <v>1334</v>
       </c>
-      <c r="C12" t="n">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>10.889443059019111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
         <v>44742</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B12" s="3">
         <v>1314</v>
       </c>
-      <c r="C13" t="n">
-        <v>9.23</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>7.0032573289902311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
         <v>44651</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B13" s="3">
         <v>1255</v>
       </c>
-      <c r="C14" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2.3654159869494373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
         <v>44561</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B14" s="3">
         <v>1207</v>
       </c>
-      <c r="C15" t="n">
-        <v>-1.55</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.4285714285714235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
         <v>44469</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B15" s="3">
         <v>1203</v>
       </c>
-      <c r="C16" t="n">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>3.706896551724137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
         <v>44377</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B16" s="3">
         <v>1228</v>
       </c>
-      <c r="C17" t="n">
-        <v>5.86</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>18.877057115198447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
         <v>44286</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B17" s="3">
         <v>1226</v>
       </c>
-      <c r="C18" t="n">
-        <v>18.68</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>17.771373679154667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
         <v>44196</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B18" s="3">
         <v>1190</v>
       </c>
-      <c r="C19" t="n">
-        <v>14.31</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>18.407960199004968</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
         <v>44104</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B19" s="3">
         <v>1160</v>
       </c>
-      <c r="C20" t="n">
-        <v>15.42</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>15.76846307385229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
         <v>44012</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B20" s="3">
         <v>1033</v>
       </c>
-      <c r="C21" t="n">
-        <v>3.09</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2.4801587301587213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
         <v>43921</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B21" s="3">
         <v>1041</v>
       </c>
-      <c r="C22" t="n">
-        <v>3.27</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>3.4791252485089519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2">
         <v>43830</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B22" s="3">
         <v>1005</v>
       </c>
-      <c r="C23" t="n">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>6.1246040126715862</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
         <v>43738</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B23" s="3">
         <v>1002</v>
       </c>
-      <c r="C24" t="n">
-        <v>5.81</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-9.9700897308074854E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
         <v>43646</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B24" s="3">
         <v>1008</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>5.9936908517350229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2">
         <v>43555</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B25" s="3">
         <v>1006</v>
       </c>
-      <c r="C26" t="n">
-        <v>5.78</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>5.4507337526205513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
         <v>43465</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B26" s="3">
         <v>947</v>
       </c>
-      <c r="C27" t="n">
-        <v>-0.73</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>4.0659340659340737</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2">
         <v>43373</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B27" s="3">
         <v>1003</v>
       </c>
-      <c r="C28" t="n">
-        <v>10.22</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>9.9780701754385923</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
         <v>43281</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B28" s="3">
         <v>951</v>
       </c>
-      <c r="C29" t="n">
-        <v>4.28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>4.5054945054945117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2">
         <v>43190</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B29" s="3">
         <v>954</v>
       </c>
-      <c r="C30" t="n">
-        <v>4.84</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>10.416666666666675</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2">
         <v>43100</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B30" s="3">
         <v>910</v>
       </c>
-      <c r="C31" t="n">
-        <v>5.32</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>5.32407407407407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2">
         <v>43008</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B31" s="3">
         <v>912</v>
       </c>
-      <c r="C32" t="n">
-        <v>5.56</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>8.3135391923990554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2">
         <v>42916</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B32" s="3">
         <v>910</v>
       </c>
-      <c r="C33" t="n">
-        <v>8.08</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>7.4380165289256173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2">
         <v>42825</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B33" s="3">
         <v>864</v>
       </c>
-      <c r="C34" t="n">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>-0.68965517241379448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2">
         <v>42735</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B34" s="3">
         <v>864</v>
       </c>
-      <c r="C35" t="n">
-        <v>-0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>1.6470588235294015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2">
         <v>42643</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B35" s="3">
         <v>842</v>
       </c>
-      <c r="C36" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>4.9875311720698257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2">
         <v>42551</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B36" s="3">
         <v>847</v>
       </c>
-      <c r="C37" t="n">
-        <v>5.61</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>5.4794520547945202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2">
         <v>42460</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B37" s="3">
         <v>870</v>
       </c>
-      <c r="C38" t="n">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>8.8861076345431833</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2">
         <v>42369</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B38" s="3">
         <v>850</v>
       </c>
-      <c r="C39" t="n">
-        <v>6.38</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>10.966057441253273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2">
         <v>42277</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B39" s="3">
         <v>802</v>
       </c>
-      <c r="C40" t="n">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>6.0846560846560926</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2">
         <v>42185</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B40" s="3">
         <v>803</v>
       </c>
-      <c r="C41" t="n">
-        <v>6.22</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>6.2169312169312096</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2">
         <v>42094</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B41" s="3">
         <v>799</v>
       </c>
-      <c r="C42" t="n">
-        <v>5.69</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>4.3080939947780728</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2">
         <v>42004</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B42" s="3">
         <v>766</v>
       </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>2.6809651474530849</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2">
         <v>41912</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B43" s="3">
         <v>756</v>
       </c>
-      <c r="C44" t="n">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>2.7173913043478271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2">
         <v>41820</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B44" s="3">
         <v>756</v>
       </c>
-      <c r="C45" t="n">
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>2.857142857142847</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2">
         <v>41729</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B45" s="3">
         <v>766</v>
       </c>
-      <c r="C46" t="n">
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>6.6852367688022385</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2">
         <v>41639</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B46" s="3">
         <v>746</v>
       </c>
-      <c r="C47" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>3.0386740331491691</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2">
         <v>41547</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B47" s="3">
         <v>736</v>
       </c>
-      <c r="C48" t="n">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>4.2492917847025469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2">
         <v>41455</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B48" s="3">
         <v>735</v>
       </c>
-      <c r="C49" t="n">
-        <v>4.11</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>2.6536312849162025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="2">
         <v>41364</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B49" s="3">
         <v>718</v>
       </c>
-      <c r="C50" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="2">
         <v>41274</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B50" s="3">
         <v>724</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="2">
         <v>41182</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B51" s="3">
         <v>706</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="2">
         <v>41090</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B52" s="3">
         <v>716</v>
       </c>
     </row>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/asking-rent.xlsx
+++ b/data/asking-rent.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,571 +501,584 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025/06/01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1494</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2025/03/01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>1468</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>-0.88</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>1475</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45536</v>
+        <v>45627</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>1523</v>
+        <v>1475</v>
       </c>
       <c r="C4" t="n">
-        <v>3.96</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45444</v>
+        <v>45536</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>1481</v>
+        <v>1523</v>
       </c>
       <c r="C5" t="n">
-        <v>1.3</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>1469</v>
+        <v>1481</v>
       </c>
       <c r="C6" t="n">
-        <v>1.66</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45261</v>
+        <v>45352</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="C7" t="n">
-        <v>0.21</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45170</v>
+        <v>45261</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="C8" t="n">
-        <v>10.59</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>1445</v>
+        <v>1462</v>
       </c>
       <c r="C9" t="n">
-        <v>8.32</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44986</v>
+        <v>45078</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>1462</v>
+        <v>1445</v>
       </c>
       <c r="C10" t="n">
-        <v>11.26</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>1322</v>
+        <v>1462</v>
       </c>
       <c r="C11" t="n">
-        <v>5.34</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44805</v>
+        <v>44896</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>1334</v>
+        <v>1322</v>
       </c>
       <c r="C12" t="n">
-        <v>10.52</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>1314</v>
+        <v>1334</v>
       </c>
       <c r="C13" t="n">
-        <v>9.23</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>1255</v>
+        <v>1314</v>
       </c>
       <c r="C14" t="n">
-        <v>2.2</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>1207</v>
+        <v>1255</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.55</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="C16" t="n">
-        <v>1.09</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="C17" t="n">
-        <v>5.86</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="C18" t="n">
-        <v>18.68</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>1190</v>
+        <v>1226</v>
       </c>
       <c r="C19" t="n">
-        <v>14.31</v>
+        <v>18.68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>1160</v>
+        <v>1190</v>
       </c>
       <c r="C20" t="n">
-        <v>15.42</v>
+        <v>14.31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>1033</v>
+        <v>1160</v>
       </c>
       <c r="C21" t="n">
-        <v>3.09</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="C22" t="n">
-        <v>3.27</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>43800</v>
+        <v>43891</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1005</v>
+        <v>1041</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43709</v>
+        <v>43800</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="C24" t="n">
-        <v>5.81</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43617</v>
+        <v>43709</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43525</v>
+        <v>43617</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C26" t="n">
-        <v>5.78</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43435</v>
+        <v>43525</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>947</v>
+        <v>1006</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.73</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43344</v>
+        <v>43435</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>1003</v>
+        <v>947</v>
       </c>
       <c r="C28" t="n">
-        <v>10.22</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43252</v>
+        <v>43344</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>951</v>
+        <v>1003</v>
       </c>
       <c r="C29" t="n">
-        <v>4.28</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43160</v>
+        <v>43252</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C30" t="n">
-        <v>4.84</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43070</v>
+        <v>43160</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>910</v>
+        <v>954</v>
       </c>
       <c r="C31" t="n">
-        <v>5.32</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>42979</v>
+        <v>43070</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C32" t="n">
-        <v>5.56</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>42887</v>
+        <v>42979</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C33" t="n">
-        <v>8.08</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>42795</v>
+        <v>42887</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>864</v>
+        <v>910</v>
       </c>
       <c r="C34" t="n">
-        <v>2.01</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>42705</v>
+        <v>42795</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>864</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.6899999999999999</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>42614</v>
+        <v>42705</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>842</v>
+        <v>864</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>42522</v>
+        <v>42614</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C37" t="n">
-        <v>5.61</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>42430</v>
+        <v>42522</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>870</v>
+        <v>847</v>
       </c>
       <c r="C38" t="n">
-        <v>8.34</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>42339</v>
+        <v>42430</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>850</v>
+        <v>870</v>
       </c>
       <c r="C39" t="n">
-        <v>6.38</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>42248</v>
+        <v>42339</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>802</v>
+        <v>850</v>
       </c>
       <c r="C40" t="n">
-        <v>4.7</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>42156</v>
+        <v>42248</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C41" t="n">
-        <v>6.22</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>42064</v>
+        <v>42156</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C42" t="n">
-        <v>5.69</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41974</v>
+        <v>42064</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>766</v>
+        <v>799</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41883</v>
+        <v>41974</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="C44" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41791</v>
+        <v>41883</v>
       </c>
       <c r="B45" s="3" t="n">
         <v>756</v>
       </c>
       <c r="C45" t="n">
-        <v>2.72</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41699</v>
+        <v>41791</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="C46" t="n">
-        <v>4.22</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41609</v>
+        <v>41699</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>746</v>
+        <v>766</v>
       </c>
       <c r="C47" t="n">
-        <v>3.9</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41518</v>
+        <v>41609</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="C48" t="n">
-        <v>1.66</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41426</v>
+        <v>41518</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C49" t="n">
-        <v>4.11</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41334</v>
+        <v>41426</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="C50" t="n">
-        <v>0.28</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41244</v>
+        <v>41334</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>724</v>
+        <v>718</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41153</v>
+        <v>41244</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>706</v>
+        <v>724</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B54" s="3" t="n">
         <v>716</v>
       </c>
     </row>
-    <row r="54"/>
     <row r="55"/>
     <row r="56"/>
+    <row r="57"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
